--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -15,14 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,231 +353,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <f>A1*C1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>A2*C2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f>A3*C3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>A4*C4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f>A5*C5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f>A6*C6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f>A7*C7</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f>A8*C8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f>A9*C9</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f>A10*C10</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f>A11*C11</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f>A12*C12</f>
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
